--- a/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\Logixal_QA_Sanity\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D11199-2FEB-453C-B95C-4A5812392457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912E9301-1AA7-4D89-9F67-4738C739A721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Testdata" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TC40_Adding_MultipleItems_Quick!$A$1:$E$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TC40_Adding_MultipleItems_Quick!$A$1:$E$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="79">
   <si>
     <t>TestCase</t>
   </si>
@@ -355,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -367,6 +367,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -714,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -730,7 +731,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1074,778 +1075,776 @@
     <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="3"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="7"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="3"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="7"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="3"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="7"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="3"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="7"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D52" s="7"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="3"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="7"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D56" s="7"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="3"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="7"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D60" s="7"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="3"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="7"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D64" s="7"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="3"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="7"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D68" s="7"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="3"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="7"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="3"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="7"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D76" s="7"/>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="3"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="7"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D80" s="7"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="3"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="7"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D84" s="7"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="3"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="7"/>
       <c r="B86" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="7"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="7"/>
       <c r="B88" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="3"/>
-      <c r="B89" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="3"/>
-      <c r="B90" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="3"/>
+      <c r="D90" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3"/>
-      <c r="B91" s="10" t="s">
-        <v>9</v>
+      <c r="B91" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5">
@@ -1854,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>45</v>
@@ -1862,54 +1861,76 @@
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="7"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="8"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>44</v>
+      <c r="A95" s="3"/>
+      <c r="B95" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="7"/>
-      <c r="B96" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="B96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7"/>
+      <c r="B99" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E97" s="7"/>
+      <c r="D99" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2290,6 +2311,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2298,7 +2325,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100599AB90ED4ADBD46B68D7A0832AE2D34" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4d93929aa8d4e603f371af1ff5e0b517">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6243fcc-5e87-4459-985d-7491a55b4be2" xmlns:ns3="904b644c-3cf7-40e5-b5a5-e101a1ff52b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17e9716027504630c423500e26042861" ns2:_="" ns3:_="">
     <xsd:import namespace="e6243fcc-5e87-4459-985d-7491a55b4be2"/>
@@ -2509,13 +2536,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="904b644c-3cf7-40e5-b5a5-e101a1ff52b5"/>
+    <ds:schemaRef ds:uri="e6243fcc-5e87-4459-985d-7491a55b4be2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2523,7 +2561,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CAE325E-5F3B-4FE5-B026-F899F4FA3755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2540,21 +2578,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="904b644c-3cf7-40e5-b5a5-e101a1ff52b5"/>
-    <ds:schemaRef ds:uri="e6243fcc-5e87-4459-985d-7491a55b4be2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912E9301-1AA7-4D89-9F67-4738C739A721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6174D8D1-2AD3-4869-A092-3F2FE6BAB60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Testdata" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TC40_Adding_MultipleItems_Quick!$A$1:$E$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TC40_Adding_MultipleItems_Quick!$A$1:$E$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="79">
   <si>
     <t>TestCase</t>
   </si>
@@ -355,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -365,7 +365,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -715,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -731,7 +730,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -918,10 +917,11 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -931,80 +931,76 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
+      <c r="B19" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5">
       <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -1012,27 +1008,27 @@
       <c r="D23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="D24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>15</v>
@@ -1040,27 +1036,27 @@
       <c r="D25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
+      <c r="D26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>16</v>
@@ -1068,47 +1064,47 @@
       <c r="D27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>17</v>
@@ -1116,47 +1112,47 @@
       <c r="D31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>18</v>
@@ -1164,47 +1160,47 @@
       <c r="D35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>19</v>
@@ -1212,47 +1208,47 @@
       <c r="D39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="D40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>20</v>
@@ -1260,47 +1256,47 @@
       <c r="D43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3"/>
-      <c r="B47" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>21</v>
@@ -1308,47 +1304,47 @@
       <c r="D47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
+      <c r="D48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3"/>
-      <c r="B51" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>22</v>
@@ -1356,47 +1352,47 @@
       <c r="D51" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
+      <c r="D52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3"/>
-      <c r="B55" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>23</v>
@@ -1404,47 +1400,47 @@
       <c r="D55" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
+      <c r="D56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3"/>
-      <c r="B59" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>24</v>
@@ -1452,47 +1448,47 @@
       <c r="D59" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8"/>
+      <c r="D60" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D61" s="7"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3"/>
-      <c r="B63" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>25</v>
@@ -1500,47 +1496,47 @@
       <c r="D63" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8"/>
+      <c r="D64" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D65" s="7"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="3"/>
-      <c r="B67" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>26</v>
@@ -1548,47 +1544,47 @@
       <c r="D67" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
+      <c r="D68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="3"/>
-      <c r="B71" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>27</v>
@@ -1596,47 +1592,47 @@
       <c r="D71" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="8"/>
+      <c r="D72" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="3"/>
-      <c r="B75" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>28</v>
@@ -1644,47 +1640,47 @@
       <c r="D75" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="8"/>
+      <c r="D76" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="3"/>
-      <c r="B79" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>29</v>
@@ -1692,47 +1688,47 @@
       <c r="D79" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="8"/>
+      <c r="D80" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="3"/>
-      <c r="B83" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>30</v>
@@ -1740,47 +1736,47 @@
       <c r="D83" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="8"/>
+      <c r="D84" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="7"/>
       <c r="B86" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="3"/>
-      <c r="B87" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>31</v>
@@ -1788,47 +1784,47 @@
       <c r="D87" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="8"/>
+      <c r="D88" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="7"/>
       <c r="B90" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="3"/>
-      <c r="B91" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>32</v>
@@ -1836,101 +1832,114 @@
       <c r="D91" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3"/>
-      <c r="B92" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="3"/>
+      <c r="B92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3"/>
-      <c r="B93" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>45</v>
+      <c r="B93" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3"/>
-      <c r="B94" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="3"/>
+      <c r="B94" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3"/>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="3"/>
+      <c r="B96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="7"/>
-      <c r="B98" s="7" t="s">
-        <v>55</v>
+      <c r="B98" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E98" s="7"/>
+      <c r="E98" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="7"/>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7"/>
+      <c r="B100" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C100" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E99" s="7"/>
+      <c r="D100" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2317,15 +2326,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100599AB90ED4ADBD46B68D7A0832AE2D34" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4d93929aa8d4e603f371af1ff5e0b517">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6243fcc-5e87-4459-985d-7491a55b4be2" xmlns:ns3="904b644c-3cf7-40e5-b5a5-e101a1ff52b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17e9716027504630c423500e26042861" ns2:_="" ns3:_="">
     <xsd:import namespace="e6243fcc-5e87-4459-985d-7491a55b4be2"/>
@@ -2536,6 +2536,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
@@ -2554,14 +2563,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CAE325E-5F3B-4FE5-B026-F899F4FA3755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2578,4 +2579,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6174D8D1-2AD3-4869-A092-3F2FE6BAB60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CA5984-94C9-406E-8420-CB1EA937909E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="80">
   <si>
     <t>TestCase</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Quickorder_SCROLL</t>
+  </si>
+  <si>
+    <t>Xpath</t>
   </si>
 </sst>
 </file>
@@ -716,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -947,7 +950,7 @@
         <v>62</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E18" s="7"/>
     </row>

--- a/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D09C78-568D-4CAA-883B-E6FB82E225CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5109D-9D0D-4CE3-9D4B-8DCC9A2CE27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC40_Adding_MultipleItems_Quick" sheetId="1" r:id="rId1"/>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1956,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2221,15 +2221,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100599AB90ED4ADBD46B68D7A0832AE2D34" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4d93929aa8d4e603f371af1ff5e0b517">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6243fcc-5e87-4459-985d-7491a55b4be2" xmlns:ns3="904b644c-3cf7-40e5-b5a5-e101a1ff52b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17e9716027504630c423500e26042861" ns2:_="" ns3:_="">
     <xsd:import namespace="e6243fcc-5e87-4459-985d-7491a55b4be2"/>
@@ -2440,6 +2431,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2447,14 +2447,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CAE325E-5F3B-4FE5-B026-F899F4FA3755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2469,6 +2461,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
